--- a/Projects/COVID-19/data/coronavirus quotes.xlsx
+++ b/Projects/COVID-19/data/coronavirus quotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csq\Documents\Public_Policy\Projects\COVID-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csq\Documents\Public_Policy\Projects\COVID-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C051123-453F-40F8-AAD4-3000C179873E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641B6FD-E6EC-4000-BE03-DFD84EB9919B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4449313-7321-42B1-9E99-408A313CC653}"/>
+    <workbookView xWindow="2496" yWindow="2376" windowWidth="20544" windowHeight="9984" xr2:uid="{E4449313-7321-42B1-9E99-408A313CC653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>[The coronavirus] is a new hoax against the Trump presidency.</t>
+  </si>
+  <si>
+    <t>WE CANNOT LET THE CURE BE WORSE THAN THE PROBLEM ITSELF.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/realDonaldTrump/status/1241935285916782593</t>
   </si>
 </sst>
 </file>
@@ -624,21 +630,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326915C0-8011-493F-B077-5A96ABC4DD9A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="163.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="91.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="163.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="91.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43852</v>
       </c>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43852</v>
       </c>
@@ -698,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43853</v>
       </c>
@@ -712,7 +718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43854</v>
       </c>
@@ -732,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43858</v>
       </c>
@@ -749,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43860</v>
       </c>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43860</v>
       </c>
@@ -786,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43861</v>
       </c>
@@ -809,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43866</v>
       </c>
@@ -826,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43871</v>
       </c>
@@ -846,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43880</v>
       </c>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43884</v>
       </c>
@@ -886,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43887</v>
       </c>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43887</v>
       </c>
@@ -926,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43888</v>
       </c>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43890</v>
       </c>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43890</v>
       </c>
@@ -983,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43894</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43896</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43896</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43894</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43897</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43899</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43899</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43897</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43900</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43901</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43906</v>
       </c>
@@ -1182,14 +1188,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1249,9 @@
     <hyperlink ref="D30" r:id="rId17" xr:uid="{B2836881-AADE-4722-BAEA-A8C17893E762}"/>
     <hyperlink ref="D31" r:id="rId18" xr:uid="{89EBB079-AA30-45F4-9EE2-60BA423EB161}"/>
     <hyperlink ref="D18" r:id="rId19" xr:uid="{872957AE-A3A0-4515-A8D8-EEDC03356530}"/>
+    <hyperlink ref="D32" r:id="rId20" xr:uid="{346DC225-DD6D-46B4-9FA8-D1C7AD2F2F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Projects/COVID-19/data/coronavirus quotes.xlsx
+++ b/Projects/COVID-19/data/coronavirus quotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csq\Documents\Public_Policy\Projects\COVID-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641B6FD-E6EC-4000-BE03-DFD84EB9919B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A50149-ADB5-44B7-8D88-0FB69A6A97F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="2376" windowWidth="20544" windowHeight="9984" xr2:uid="{E4449313-7321-42B1-9E99-408A313CC653}"/>
+    <workbookView xWindow="252" yWindow="2364" windowWidth="20556" windowHeight="9996" xr2:uid="{E4449313-7321-42B1-9E99-408A313CC653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,24 @@
   </si>
   <si>
     <t>https://twitter.com/realDonaldTrump/status/1241935285916782593</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2020/03/17/us/politics/trump-coronavirus.html</t>
+  </si>
+  <si>
+    <t>This is a pandemic. I felt it was a pandemic long before it was called a pandemic.</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/amp/news/2020/03/13/trump-coronavirus-testing-128971</t>
+  </si>
+  <si>
+    <t>I don't take responsibility at all.</t>
+  </si>
+  <si>
+    <t>[Blue state governors] have to treat us well, also. They can’t say, ‘Oh, gee, we should get this, we should get that.’</t>
+  </si>
+  <si>
+    <t>https://www.vox.com/2020/3/25/21193803/trump-to-governors-coronavirus-help-ventilators-cuomo</t>
   </si>
 </sst>
 </file>
@@ -308,12 +326,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,10 +649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326915C0-8011-493F-B077-5A96ABC4DD9A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,32 +1189,59 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>43906</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="2" t="s">
-        <v>70</v>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,6 +1262,36 @@
       </c>
       <c r="G32">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1302,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+    <sortCondition ref="A33"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1A8E7DFB-4F49-4ACE-8622-01F829D28EFB}"/>
@@ -1245,13 +1321,16 @@
     <hyperlink ref="D23" r:id="rId13" xr:uid="{BE3DB07D-F8D0-4554-B737-777EE9990A21}"/>
     <hyperlink ref="D25" r:id="rId14" xr:uid="{8D15C78D-FF82-4395-ACF8-243F052F8633}"/>
     <hyperlink ref="D28" r:id="rId15" xr:uid="{0CAC43E8-9AAA-436D-80BF-09ECE1A418AD}"/>
-    <hyperlink ref="D29" r:id="rId16" xr:uid="{73AF38D1-3E57-45D2-84A3-EA65B8EDE33A}"/>
-    <hyperlink ref="D30" r:id="rId17" xr:uid="{B2836881-AADE-4722-BAEA-A8C17893E762}"/>
-    <hyperlink ref="D31" r:id="rId18" xr:uid="{89EBB079-AA30-45F4-9EE2-60BA423EB161}"/>
+    <hyperlink ref="D30" r:id="rId16" xr:uid="{73AF38D1-3E57-45D2-84A3-EA65B8EDE33A}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{B2836881-AADE-4722-BAEA-A8C17893E762}"/>
+    <hyperlink ref="D35" r:id="rId18" xr:uid="{89EBB079-AA30-45F4-9EE2-60BA423EB161}"/>
     <hyperlink ref="D18" r:id="rId19" xr:uid="{872957AE-A3A0-4515-A8D8-EEDC03356530}"/>
     <hyperlink ref="D32" r:id="rId20" xr:uid="{346DC225-DD6D-46B4-9FA8-D1C7AD2F2F89}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{6BF9AADE-5898-4DE6-B113-9B65CA86D2D6}"/>
+    <hyperlink ref="D29" r:id="rId22" xr:uid="{D1EC16D3-A537-4197-B732-6E9BE941FC5D}"/>
+    <hyperlink ref="D33" r:id="rId23" xr:uid="{8E838A58-839F-4DA1-BA87-788724BF3A19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>